--- a/Duophonic/MPU-pinout.xlsx
+++ b/Duophonic/MPU-pinout.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="1232">
   <si>
     <t xml:space="preserve">Pin</t>
   </si>
@@ -3091,7 +3091,7 @@
     <t xml:space="preserve">Button 1</t>
   </si>
   <si>
-    <t xml:space="preserve"> display CS3?</t>
+    <t xml:space="preserve">spare</t>
   </si>
   <si>
     <t xml:space="preserve">SCLK PitchDAC</t>
@@ -3136,16 +3136,22 @@
     <t xml:space="preserve">Low R PWM</t>
   </si>
   <si>
+    <t xml:space="preserve">display DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDIO Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfDAC CS1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display RST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perfDAC CS2</t>
+  </si>
+  <si>
     <t xml:space="preserve">display CS3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDIO Pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfDAC CS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfDAC CS1</t>
   </si>
   <si>
     <t xml:space="preserve">MM Pin</t>
@@ -3892,12 +3898,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3919,6 +3919,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4782,7 +4788,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4794,27 +4800,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="31" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="31" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4839,6 +4841,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5039,7 +5045,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>249120</xdr:rowOff>
     </xdr:from>
@@ -5047,7 +5053,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>790920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5060,8 +5066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4373280" y="1007280"/>
-          <a:ext cx="2807640" cy="1290960"/>
+          <a:off x="4373640" y="1007280"/>
+          <a:ext cx="2807280" cy="1290600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5082,9 +5088,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>753840</xdr:colOff>
+      <xdr:colOff>753480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5098,7 +5104,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5187240" y="3225960"/>
-          <a:ext cx="1198440" cy="1410480"/>
+          <a:ext cx="1198080" cy="1410120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5119,9 +5125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>680400</xdr:colOff>
+      <xdr:colOff>680040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5135,7 +5141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105880" y="4713120"/>
-          <a:ext cx="1206360" cy="2333520"/>
+          <a:ext cx="1206000" cy="2333160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5156,7 +5162,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>699480</xdr:colOff>
+      <xdr:colOff>699120</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
@@ -5168,7 +5174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5261760" y="2987280"/>
-          <a:ext cx="1069560" cy="204480"/>
+          <a:ext cx="1069200" cy="204480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5234,9 +5240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>846360</xdr:colOff>
+      <xdr:colOff>846000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5250,7 +5256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2478240" y="95040"/>
-          <a:ext cx="1288440" cy="4268160"/>
+          <a:ext cx="1288080" cy="4267800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5273,7 +5279,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>543240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5282,8 +5288,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2434320" y="2919600"/>
-          <a:ext cx="608760" cy="267480"/>
+          <a:off x="2434320" y="2919240"/>
+          <a:ext cx="608400" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5335,7 +5341,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
@@ -5347,7 +5353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2535120" y="239760"/>
-          <a:ext cx="487080" cy="267480"/>
+          <a:ext cx="486720" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5401,7 +5407,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>137880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5410,8 +5416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2681640" y="2889720"/>
-          <a:ext cx="485640" cy="267480"/>
+          <a:off x="2681640" y="2889360"/>
+          <a:ext cx="485280" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5465,7 +5471,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>320400</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5474,8 +5480,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2848680" y="3057480"/>
-          <a:ext cx="516600" cy="267480"/>
+          <a:off x="2848680" y="3057120"/>
+          <a:ext cx="516240" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5529,7 +5535,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>502200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5538,8 +5544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2961360" y="3150360"/>
-          <a:ext cx="654840" cy="267480"/>
+          <a:off x="2961360" y="3150000"/>
+          <a:ext cx="654480" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5593,7 +5599,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>679320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5602,8 +5608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3155040" y="3092040"/>
-          <a:ext cx="621720" cy="267480"/>
+          <a:off x="3155040" y="3091680"/>
+          <a:ext cx="621360" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5664,7 +5670,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>32400</xdr:colOff>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
@@ -5676,7 +5682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2506680" y="247680"/>
-          <a:ext cx="446040" cy="267480"/>
+          <a:ext cx="445680" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5728,7 +5734,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99360</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
@@ -5740,7 +5746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2532960" y="260640"/>
-          <a:ext cx="487080" cy="267480"/>
+          <a:ext cx="486720" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5792,7 +5798,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27360</xdr:colOff>
+      <xdr:colOff>27000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
@@ -5804,7 +5810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2460600" y="416160"/>
-          <a:ext cx="487080" cy="267480"/>
+          <a:ext cx="486720" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5856,7 +5862,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
@@ -5868,7 +5874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2454120" y="604800"/>
-          <a:ext cx="487080" cy="267480"/>
+          <a:ext cx="486720" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7551,7 +7557,7 @@
         <v>190</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>192</v>
@@ -7574,7 +7580,7 @@
         <v>197</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>199</v>
@@ -7701,10 +7707,10 @@
         <v>134</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>137</v>
@@ -7730,10 +7736,10 @@
         <v>126</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>129</v>
@@ -8001,48 +8007,48 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="K23" s="26" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8050,19 +8056,19 @@
         <v>484</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>153</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,19 +8076,19 @@
         <v>485</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8090,19 +8096,19 @@
         <v>486</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>112</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8110,19 +8116,19 @@
         <v>487</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="M27" s="26" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8145,7 +8151,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8168,7 +8174,7 @@
         <v>79</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,7 +8197,7 @@
         <v>244</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,7 +8211,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>70</v>
@@ -8231,7 +8237,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>63</v>
@@ -8258,7 +8264,7 @@
       </c>
       <c r="D33" s="125"/>
       <c r="E33" s="125" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="F33" s="125" t="s">
         <v>273</v>
@@ -8289,7 +8295,7 @@
       </c>
       <c r="D34" s="125"/>
       <c r="E34" s="125" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F34" s="125" t="s">
         <v>267</v>
@@ -8372,7 +8378,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="125" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B37" s="125" t="s">
         <v>282</v>
@@ -8403,7 +8409,7 @@
     </row>
     <row r="38" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="125" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B38" s="125" t="s">
         <v>277</v>
@@ -8711,16 +8717,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="113" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F1" s="113" t="s">
         <v>1</v>
@@ -8761,16 +8767,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="Q2" s="26"/>
     </row>
@@ -8779,13 +8785,13 @@
         <v>216</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>217</v>
@@ -8803,16 +8809,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="Q4" s="26"/>
     </row>
@@ -8821,10 +8827,10 @@
         <v>209</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>210</v>
@@ -8854,13 +8860,13 @@
         <v>80</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>44</v>
@@ -8890,10 +8896,10 @@
         <v>94</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>141</v>
@@ -8923,13 +8929,13 @@
         <v>148</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>149</v>
@@ -8959,13 +8965,13 @@
         <v>221</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>222</v>
@@ -8989,10 +8995,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>308</v>
@@ -9025,16 +9031,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>50</v>
@@ -9061,10 +9067,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>312</v>
@@ -9097,10 +9103,10 @@
         <v>124</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>125</v>
@@ -9109,10 +9115,10 @@
         <v>126</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="M13" s="26" t="s">
         <v>129</v>
@@ -9132,10 +9138,10 @@
         <v>132</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>133</v>
@@ -9144,10 +9150,10 @@
         <v>134</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>137</v>
@@ -9170,10 +9176,10 @@
         <v>239</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>37</v>
@@ -9233,25 +9239,25 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>258</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="Q17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>452</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="Q18" s="26"/>
     </row>
@@ -9260,7 +9266,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>369</v>
@@ -9293,34 +9299,34 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="K20" s="26" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="Q20" s="26" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9328,10 +9334,10 @@
         <v>227</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>228</v>
@@ -9355,34 +9361,34 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>484</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="G22" s="26" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="Q22" s="26" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,7 +9399,7 @@
         <v>485</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>234</v>
@@ -9423,25 +9429,25 @@
         <v>486</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>153</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9452,25 +9458,25 @@
         <v>488</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9481,13 +9487,13 @@
         <v>490</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>30</v>
@@ -9517,25 +9523,25 @@
         <v>493</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>112</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9546,10 +9552,10 @@
         <v>498</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>171</v>
@@ -9581,13 +9587,13 @@
         <v>504</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>164</v>
@@ -9617,7 +9623,7 @@
         <v>510</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>195</v>
@@ -9629,7 +9635,7 @@
         <v>197</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="K30" s="26" t="s">
         <v>199</v>
@@ -9650,13 +9656,13 @@
         <v>515</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>157</v>
@@ -9686,7 +9692,7 @@
         <v>521</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>188</v>
@@ -9698,7 +9704,7 @@
         <v>190</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>192</v>
@@ -9716,13 +9722,13 @@
         <v>526</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>67</v>
@@ -9731,7 +9737,7 @@
         <v>68</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>70</v>
@@ -9752,13 +9758,13 @@
         <v>80</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>81</v>
@@ -9787,13 +9793,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>60</v>
@@ -9802,7 +9808,7 @@
         <v>61</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>63</v>
@@ -9823,13 +9829,13 @@
         <v>101</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>102</v>
@@ -9858,10 +9864,10 @@
         <v>176</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>177</v>
@@ -9893,13 +9899,13 @@
         <v>87</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>88</v>
@@ -9928,10 +9934,10 @@
         <v>446</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>265</v>
@@ -9940,7 +9946,7 @@
         <v>266</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>267</v>
@@ -9960,13 +9966,13 @@
         <v>94</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>95</v>
@@ -9995,10 +10001,10 @@
         <v>452</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>271</v>
@@ -10007,7 +10013,7 @@
         <v>272</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="J41" s="26" t="s">
         <v>273</v>
@@ -10027,13 +10033,13 @@
         <v>245</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>246</v>
@@ -10060,10 +10066,10 @@
         <v>258</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>259</v>
@@ -10092,13 +10098,13 @@
         <v>239</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>240</v>
@@ -10116,7 +10122,7 @@
         <v>244</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10124,10 +10130,10 @@
         <v>251</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>252</v>
@@ -10156,10 +10162,10 @@
         <v>202</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>203</v>
@@ -10183,13 +10189,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>282</v>
@@ -10218,13 +10224,13 @@
         <v>74</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="F48" s="26" t="s">
         <v>75</v>
@@ -10242,18 +10248,18 @@
         <v>79</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>277</v>
@@ -10282,13 +10288,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>55</v>
@@ -10306,7 +10312,7 @@
         <v>59</v>
       </c>
       <c r="Q50" s="26" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10314,28 +10320,28 @@
         <v>487</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="O51" s="26" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="Q51" s="26" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10389,7 +10395,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="101" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="101"/>
@@ -10399,7 +10405,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="101" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="Q55" s="26"/>
     </row>
@@ -20444,7 +20450,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20467,7 +20473,9 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="127"/>
-      <c r="B2" s="128"/>
+      <c r="B2" s="128" t="s">
+        <v>303</v>
+      </c>
       <c r="C2" s="129"/>
       <c r="D2" s="129"/>
       <c r="E2" s="130" t="s">
@@ -20582,7 +20590,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="133" t="s">
         <v>1003</v>
       </c>
       <c r="B10" s="132" t="n">
@@ -20598,7 +20606,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="138" t="s">
         <v>1005</v>
       </c>
       <c r="B11" s="132" t="n">
@@ -20614,7 +20622,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="139" t="s">
         <v>1007</v>
       </c>
       <c r="B12" s="132" t="n">
@@ -20630,7 +20638,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="138" t="s">
         <v>1009</v>
       </c>
       <c r="B13" s="132" t="n">
@@ -20646,7 +20654,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="138" t="s">
         <v>1011</v>
       </c>
       <c r="B14" s="132" t="n">
@@ -20662,7 +20670,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="140" t="s">
         <v>1013</v>
       </c>
       <c r="B15" s="132" t="n">
@@ -20673,7 +20681,7 @@
       <c r="E15" s="134" t="n">
         <v>13</v>
       </c>
-      <c r="F15" s="142" t="s">
+      <c r="F15" s="141" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -20690,7 +20698,7 @@
       <c r="F16" s="130"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="142" t="s">
         <v>1016</v>
       </c>
       <c r="B17" s="132" t="n">
@@ -20698,15 +20706,15 @@
       </c>
       <c r="C17" s="129"/>
       <c r="D17" s="129"/>
-      <c r="E17" s="144" t="n">
+      <c r="E17" s="143" t="n">
         <v>41</v>
       </c>
-      <c r="F17" s="145" t="s">
+      <c r="F17" s="144" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="142" t="s">
         <v>1018</v>
       </c>
       <c r="B18" s="132" t="n">
@@ -20714,15 +20722,15 @@
       </c>
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
-      <c r="E18" s="144" t="n">
+      <c r="E18" s="143" t="n">
         <v>40</v>
       </c>
-      <c r="F18" s="145" t="s">
+      <c r="F18" s="144" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="138" t="s">
         <v>1020</v>
       </c>
       <c r="B19" s="132" t="n">
@@ -20733,12 +20741,12 @@
       <c r="E19" s="134" t="n">
         <v>39</v>
       </c>
-      <c r="F19" s="145" t="s">
+      <c r="F19" s="144" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="139" t="s">
+      <c r="A20" s="138" t="s">
         <v>1022</v>
       </c>
       <c r="B20" s="132" t="n">
@@ -20749,12 +20757,12 @@
       <c r="E20" s="134" t="n">
         <v>38</v>
       </c>
-      <c r="F20" s="145" t="s">
+      <c r="F20" s="144" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="142" t="s">
         <v>1024</v>
       </c>
       <c r="B21" s="132" t="n">
@@ -20765,66 +20773,74 @@
       <c r="E21" s="134" t="n">
         <v>37</v>
       </c>
-      <c r="F21" s="146" t="s">
+      <c r="F21" s="145" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="142" t="s">
         <v>1026</v>
       </c>
       <c r="B22" s="132" t="n">
         <v>29</v>
       </c>
-      <c r="C22" s="147"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="129"/>
       <c r="E22" s="134" t="n">
         <v>36</v>
       </c>
-      <c r="F22" s="146" t="s">
+      <c r="F22" s="145" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="139" t="s">
+      <c r="A23" s="138" t="s">
         <v>1028</v>
       </c>
       <c r="B23" s="132" t="n">
         <v>30</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="146" t="s">
         <v>1029</v>
       </c>
-      <c r="D23" s="147"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="134" t="n">
         <v>35</v>
       </c>
+      <c r="F23" s="147" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="139" t="s">
-        <v>1030</v>
+      <c r="A24" s="138" t="s">
+        <v>1031</v>
       </c>
       <c r="B24" s="132" t="n">
         <v>31</v>
       </c>
       <c r="C24" s="148"/>
-      <c r="D24" s="147"/>
+      <c r="D24" s="146"/>
       <c r="E24" s="134" t="n">
         <v>34</v>
       </c>
-      <c r="F24" s="135"/>
+      <c r="F24" s="147" t="s">
+        <v>1032</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="139" t="s">
-        <v>1031</v>
+      <c r="A25" s="138" t="s">
+        <v>1033</v>
       </c>
       <c r="B25" s="132" t="n">
         <v>32</v>
       </c>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
       <c r="E25" s="134" t="n">
         <v>33</v>
+      </c>
+      <c r="F25" s="136" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="26" s="89" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20978,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C1" s="98" t="s">
         <v>1</v>
@@ -21022,7 +21038,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>14</v>
@@ -21052,7 +21068,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -21163,7 +21179,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>50</v>
@@ -21190,7 +21206,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>55</v>
@@ -21208,7 +21224,7 @@
         <v>59</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21216,7 +21232,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>60</v>
@@ -21225,7 +21241,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>63</v>
@@ -21255,7 +21271,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>70</v>
@@ -21276,7 +21292,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>75</v>
@@ -21294,7 +21310,7 @@
         <v>79</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21302,7 +21318,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>81</v>
@@ -21331,7 +21347,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>88</v>
@@ -21360,7 +21376,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>95</v>
@@ -21389,7 +21405,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>102</v>
@@ -21448,7 +21464,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>117</v>
@@ -21478,7 +21494,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>125</v>
@@ -21487,10 +21503,10 @@
         <v>126</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>129</v>
@@ -21510,7 +21526,7 @@
         <v>132</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>133</v>
@@ -21519,10 +21535,10 @@
         <v>134</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>137</v>
@@ -21572,7 +21588,7 @@
         <v>148</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>149</v>
@@ -21685,7 +21701,7 @@
         <v>176</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>177</v>
@@ -21768,7 +21784,7 @@
         <v>190</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>192</v>
@@ -21795,7 +21811,7 @@
         <v>197</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>199</v>
@@ -21813,7 +21829,7 @@
         <v>202</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>203</v>
@@ -21840,7 +21856,7 @@
         <v>209</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>210</v>
@@ -21867,7 +21883,7 @@
         <v>216</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>217</v>
@@ -21888,7 +21904,7 @@
         <v>221</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>222</v>
@@ -21912,7 +21928,7 @@
         <v>227</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>228</v>
@@ -21966,7 +21982,7 @@
         <v>239</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>240</v>
@@ -21984,7 +22000,7 @@
         <v>244</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21992,7 +22008,7 @@
         <v>245</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>246</v>
@@ -22026,7 +22042,7 @@
         <v>251</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>252</v>
@@ -22055,7 +22071,7 @@
         <v>258</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>259</v>
@@ -22084,7 +22100,7 @@
         <v>446</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>265</v>
@@ -22093,7 +22109,7 @@
         <v>266</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>267</v>
@@ -22113,7 +22129,7 @@
         <v>452</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>271</v>
@@ -22122,7 +22138,7 @@
         <v>272</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>273</v>
@@ -22139,10 +22155,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>282</v>
@@ -22168,10 +22184,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>277</v>
@@ -22197,61 +22213,61 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="101" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B44" s="101"/>
       <c r="N44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>484</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="L46" s="26" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22262,19 +22278,19 @@
         <v>486</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>153</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22285,19 +22301,19 @@
         <v>488</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>145</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="N48" s="26" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22308,19 +22324,19 @@
         <v>493</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>112</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22328,33 +22344,33 @@
         <v>487</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="L50" s="26" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="N50" s="26" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="101" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="N51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>258</v>
@@ -22363,7 +22379,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>452</v>
@@ -22372,19 +22388,19 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="N54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="N55" s="26"/>
     </row>
@@ -23738,7 +23754,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>282</v>
@@ -23770,7 +23786,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>277</v>
@@ -23809,66 +23825,66 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D44" s="105" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E44" s="111" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F44" s="103" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="G44" s="109" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="H44" s="106" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="D45" s="105" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E45" s="111" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="F45" s="103" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="G45" s="109" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="H45" s="106" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23876,10 +23892,10 @@
         <v>484</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="D46" s="105" t="s">
         <v>689</v>
@@ -23888,19 +23904,19 @@
         <v>572</v>
       </c>
       <c r="F46" s="103" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G46" s="109" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="H46" s="106" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23908,31 +23924,31 @@
         <v>485</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D47" s="105" t="s">
         <v>680</v>
       </c>
       <c r="E47" s="105" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F47" s="103" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="G47" s="109" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="H47" s="106" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23940,10 +23956,10 @@
         <v>486</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="D48" s="105" t="s">
         <v>647</v>
@@ -23955,16 +23971,16 @@
         <v>674</v>
       </c>
       <c r="G48" s="109" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="H48" s="106" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23972,31 +23988,31 @@
         <v>487</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E49" s="105" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="F49" s="104" t="s">
         <v>665</v>
       </c>
       <c r="G49" s="109" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="H49" s="106" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
   </sheetData>

--- a/Duophonic/MPU-pinout.xlsx
+++ b/Duophonic/MPU-pinout.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="1232">
   <si>
     <t xml:space="preserve">Pin</t>
   </si>
@@ -3009,6 +3009,9 @@
   </si>
   <si>
     <t xml:space="preserve">DIN MIDI RX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spare</t>
   </si>
   <si>
     <t xml:space="preserve">FreqMeasureMulti Low</t>
@@ -3091,9 +3094,6 @@
     <t xml:space="preserve">Button 1</t>
   </si>
   <si>
-    <t xml:space="preserve">spare</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCLK PitchDAC</t>
   </si>
   <si>
@@ -3136,19 +3136,37 @@
     <t xml:space="preserve">Low R PWM</t>
   </si>
   <si>
-    <t xml:space="preserve">display DC</t>
+    <t xml:space="preserve">perfDAC CS1</t>
   </si>
   <si>
     <t xml:space="preserve">SDIO Pins</t>
   </si>
   <si>
-    <t xml:space="preserve">perfDAC CS1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">display DC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">perfDAC CS2</t>
   </si>
   <si>
     <t xml:space="preserve">display RST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfDAC CS2</t>
   </si>
   <si>
     <t xml:space="preserve">display CS3</t>
@@ -4255,7 +4273,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4788,6 +4806,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -4809,10 +4831,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4843,6 +4861,10 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -5045,7 +5067,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>249120</xdr:rowOff>
     </xdr:from>
@@ -5053,7 +5075,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>790920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>189360</xdr:rowOff>
+      <xdr:rowOff>189000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5066,8 +5088,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4373640" y="1007280"/>
-          <a:ext cx="2807280" cy="1290600"/>
+          <a:off x="4374000" y="1007280"/>
+          <a:ext cx="2806920" cy="1290240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5088,9 +5110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>753480</xdr:colOff>
+      <xdr:colOff>753120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5104,7 +5126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5187240" y="3225960"/>
-          <a:ext cx="1198080" cy="1410120"/>
+          <a:ext cx="1197720" cy="1409760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5125,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>680040</xdr:colOff>
+      <xdr:colOff>679680</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5141,7 +5163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105880" y="4713120"/>
-          <a:ext cx="1206000" cy="2333160"/>
+          <a:ext cx="1205640" cy="2332800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5162,7 +5184,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>699120</xdr:colOff>
+      <xdr:colOff>698760</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
@@ -5174,7 +5196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5261760" y="2987280"/>
-          <a:ext cx="1069200" cy="204480"/>
+          <a:ext cx="1068840" cy="204480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5240,9 +5262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>846000</xdr:colOff>
+      <xdr:colOff>845640</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5256,7 +5278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2478240" y="95040"/>
-          <a:ext cx="1288080" cy="4267800"/>
+          <a:ext cx="1287720" cy="4267440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5279,7 +5301,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>543240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5288,8 +5310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2434320" y="2919240"/>
-          <a:ext cx="608400" cy="267480"/>
+          <a:off x="2434680" y="2919240"/>
+          <a:ext cx="608040" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5341,7 +5363,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
@@ -5353,7 +5375,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2535120" y="239760"/>
-          <a:ext cx="486720" cy="267480"/>
+          <a:ext cx="486360" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5535,7 +5557,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>502200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5544,8 +5566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2961360" y="3150000"/>
-          <a:ext cx="654480" cy="267480"/>
+          <a:off x="2961720" y="3150000"/>
+          <a:ext cx="654120" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5670,7 +5692,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>31680</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
@@ -5682,7 +5704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2506680" y="247680"/>
-          <a:ext cx="445680" cy="267480"/>
+          <a:ext cx="445320" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5734,7 +5756,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
@@ -5746,7 +5768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2532960" y="260640"/>
-          <a:ext cx="486720" cy="267480"/>
+          <a:ext cx="486360" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5798,7 +5820,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
@@ -5810,7 +5832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2460600" y="416160"/>
-          <a:ext cx="486720" cy="267480"/>
+          <a:ext cx="486360" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5862,7 +5884,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
@@ -5874,7 +5896,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2454120" y="604800"/>
-          <a:ext cx="486720" cy="267480"/>
+          <a:ext cx="486360" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20450,7 +20472,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20498,7 +20520,9 @@
       <c r="F3" s="130"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="127"/>
+      <c r="A4" s="133" t="s">
+        <v>993</v>
+      </c>
       <c r="B4" s="132" t="n">
         <v>1</v>
       </c>
@@ -20510,175 +20534,175 @@
       <c r="F4" s="130"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="133" t="s">
-        <v>993</v>
+      <c r="A5" s="134" t="s">
+        <v>994</v>
       </c>
       <c r="B5" s="132" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="129"/>
       <c r="D5" s="129"/>
-      <c r="E5" s="134" t="n">
+      <c r="E5" s="135" t="n">
         <v>23</v>
       </c>
-      <c r="F5" s="135" t="s">
-        <v>994</v>
+      <c r="F5" s="136" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="133" t="s">
-        <v>995</v>
+      <c r="A6" s="134" t="s">
+        <v>996</v>
       </c>
       <c r="B6" s="132" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="129"/>
       <c r="D6" s="129"/>
-      <c r="E6" s="134" t="n">
+      <c r="E6" s="135" t="n">
         <v>22</v>
       </c>
-      <c r="F6" s="136" t="s">
-        <v>996</v>
+      <c r="F6" s="137" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="127" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B7" s="132" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="129"/>
       <c r="D7" s="129"/>
-      <c r="E7" s="134" t="n">
+      <c r="E7" s="135" t="n">
         <v>21</v>
       </c>
-      <c r="F7" s="135" t="s">
-        <v>998</v>
+      <c r="F7" s="136" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="127" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B8" s="132" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="129"/>
       <c r="D8" s="129"/>
-      <c r="E8" s="134" t="n">
+      <c r="E8" s="135" t="n">
         <v>20</v>
       </c>
-      <c r="F8" s="135" t="s">
-        <v>1000</v>
+      <c r="F8" s="136" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="127" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B9" s="132" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="129"/>
       <c r="D9" s="129"/>
-      <c r="E9" s="134" t="n">
+      <c r="E9" s="135" t="n">
         <v>19</v>
       </c>
-      <c r="F9" s="137" t="s">
-        <v>1002</v>
+      <c r="F9" s="138" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="133" t="s">
-        <v>1003</v>
+      <c r="A10" s="134" t="s">
+        <v>1004</v>
       </c>
       <c r="B10" s="132" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
-      <c r="E10" s="134" t="n">
+      <c r="E10" s="135" t="n">
         <v>18</v>
       </c>
-      <c r="F10" s="137" t="s">
-        <v>1004</v>
+      <c r="F10" s="138" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="138" t="s">
-        <v>1005</v>
+      <c r="A11" s="139" t="s">
+        <v>1006</v>
       </c>
       <c r="B11" s="132" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="129"/>
       <c r="D11" s="129"/>
-      <c r="E11" s="134" t="n">
+      <c r="E11" s="135" t="n">
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="139" t="s">
-        <v>1007</v>
+      <c r="A12" s="133" t="s">
+        <v>1008</v>
       </c>
       <c r="B12" s="132" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="129"/>
       <c r="D12" s="129"/>
-      <c r="E12" s="134" t="n">
+      <c r="E12" s="135" t="n">
         <v>16</v>
       </c>
-      <c r="F12" s="135" t="s">
-        <v>1008</v>
+      <c r="F12" s="136" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="138" t="s">
-        <v>1009</v>
+      <c r="A13" s="139" t="s">
+        <v>1010</v>
       </c>
       <c r="B13" s="132" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="129"/>
       <c r="D13" s="129"/>
-      <c r="E13" s="134" t="n">
+      <c r="E13" s="135" t="n">
         <v>15</v>
       </c>
-      <c r="F13" s="135" t="s">
-        <v>1010</v>
+      <c r="F13" s="136" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="138" t="s">
-        <v>1011</v>
+      <c r="A14" s="139" t="s">
+        <v>1012</v>
       </c>
       <c r="B14" s="132" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
-      <c r="E14" s="134" t="n">
+      <c r="E14" s="135" t="n">
         <v>14</v>
       </c>
-      <c r="F14" s="135" t="s">
-        <v>1012</v>
+      <c r="F14" s="136" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="140" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="B15" s="132" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="129"/>
       <c r="D15" s="129"/>
-      <c r="E15" s="134" t="n">
+      <c r="E15" s="135" t="n">
         <v>13</v>
       </c>
       <c r="F15" s="141" t="s">
@@ -20730,7 +20754,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="139" t="s">
         <v>1020</v>
       </c>
       <c r="B19" s="132" t="n">
@@ -20738,7 +20762,7 @@
       </c>
       <c r="C19" s="129"/>
       <c r="D19" s="129"/>
-      <c r="E19" s="134" t="n">
+      <c r="E19" s="135" t="n">
         <v>39</v>
       </c>
       <c r="F19" s="144" t="s">
@@ -20746,7 +20770,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="139" t="s">
         <v>1022</v>
       </c>
       <c r="B20" s="132" t="n">
@@ -20754,7 +20778,7 @@
       </c>
       <c r="C20" s="129"/>
       <c r="D20" s="129"/>
-      <c r="E20" s="134" t="n">
+      <c r="E20" s="135" t="n">
         <v>38</v>
       </c>
       <c r="F20" s="144" t="s">
@@ -20770,7 +20794,7 @@
       </c>
       <c r="C21" s="129"/>
       <c r="D21" s="129"/>
-      <c r="E21" s="134" t="n">
+      <c r="E21" s="135" t="n">
         <v>37</v>
       </c>
       <c r="F21" s="145" t="s">
@@ -20786,7 +20810,7 @@
       </c>
       <c r="C22" s="146"/>
       <c r="D22" s="129"/>
-      <c r="E22" s="134" t="n">
+      <c r="E22" s="135" t="n">
         <v>36</v>
       </c>
       <c r="F22" s="145" t="s">
@@ -20794,7 +20818,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="147" t="s">
         <v>1028</v>
       </c>
       <c r="B23" s="132" t="n">
@@ -20804,43 +20828,43 @@
         <v>1029</v>
       </c>
       <c r="D23" s="146"/>
-      <c r="E23" s="134" t="n">
+      <c r="E23" s="135" t="n">
         <v>35</v>
       </c>
-      <c r="F23" s="147" t="s">
+      <c r="F23" s="148" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="139" t="s">
         <v>1031</v>
       </c>
       <c r="B24" s="132" t="n">
         <v>31</v>
       </c>
-      <c r="C24" s="148"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="146"/>
-      <c r="E24" s="134" t="n">
+      <c r="E24" s="135" t="n">
         <v>34</v>
       </c>
-      <c r="F24" s="147" t="s">
+      <c r="F24" s="148" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="138" t="s">
-        <v>1033</v>
+      <c r="A25" s="140" t="s">
+        <v>993</v>
       </c>
       <c r="B25" s="132" t="n">
         <v>32</v>
       </c>
       <c r="C25" s="146"/>
       <c r="D25" s="146"/>
-      <c r="E25" s="134" t="n">
+      <c r="E25" s="135" t="n">
         <v>33</v>
       </c>
-      <c r="F25" s="136" t="s">
-        <v>1013</v>
+      <c r="F25" s="141" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="26" s="89" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Duophonic/MPU-pinout.xlsx
+++ b/Duophonic/MPU-pinout.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="1228">
   <si>
     <t xml:space="preserve">Pin</t>
   </si>
@@ -3100,13 +3100,13 @@
     <t xml:space="preserve">3V3</t>
   </si>
   <si>
-    <t xml:space="preserve">High B PWM</t>
+    <t xml:space="preserve">perfDAC CS1</t>
   </si>
   <si>
     <t xml:space="preserve">A17 Pot 4</t>
   </si>
   <si>
-    <t xml:space="preserve">High G PWM</t>
+    <t xml:space="preserve">perfDAC CS2</t>
   </si>
   <si>
     <t xml:space="preserve">A16 Pot 3</t>
@@ -3124,52 +3124,22 @@
     <t xml:space="preserve">A14 Pot 1</t>
   </si>
   <si>
-    <t xml:space="preserve">High R PWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low G PWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low B PWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low R PWM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">perfDAC CS1</t>
+    <t xml:space="preserve">display DC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display RST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display CS3</t>
   </si>
   <si>
     <t xml:space="preserve">SDIO Pins</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">display DC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">perfDAC CS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display RST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">display CS3</t>
   </si>
   <si>
     <t xml:space="preserve">MM Pin</t>
@@ -3775,7 +3745,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="h:mm"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3945,6 +3915,13 @@
       <family val="2"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3957,7 +3934,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4027,7 +4004,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
-        <bgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
     <fill>
@@ -4152,12 +4129,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA6A6"/>
-        <bgColor rgb="FFFF9999"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC9C9C9"/>
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
@@ -4273,7 +4244,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4842,19 +4813,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="34" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="33" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4862,17 +4833,21 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -5018,7 +4993,7 @@
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FFA9D18E"/>
       <rgbColor rgb="FFC9C9C9"/>
-      <rgbColor rgb="FFFF9999"/>
+      <rgbColor rgb="FFFFCCFF"/>
       <rgbColor rgb="FFDAE3F3"/>
       <rgbColor rgb="FFCCECFF"/>
       <rgbColor rgb="FF660066"/>
@@ -5038,7 +5013,7 @@
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFD4EA6B"/>
       <rgbColor rgb="FF80E5FF"/>
-      <rgbColor rgb="FFFFA6A6"/>
+      <rgbColor rgb="FFFF9999"/>
       <rgbColor rgb="FFB7B3CA"/>
       <rgbColor rgb="FFF2D085"/>
       <rgbColor rgb="FFCCCCCC"/>
@@ -5054,7 +5029,7 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FFFFCCFF"/>
+      <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -5067,7 +5042,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>249120</xdr:rowOff>
     </xdr:from>
@@ -5075,7 +5050,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>790920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5088,8 +5063,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4374000" y="1007280"/>
-          <a:ext cx="2806920" cy="1290240"/>
+          <a:off x="4374360" y="1007280"/>
+          <a:ext cx="2806560" cy="1289880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5110,9 +5085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>753120</xdr:colOff>
+      <xdr:colOff>752760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5126,7 +5101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5187240" y="3225960"/>
-          <a:ext cx="1197720" cy="1409760"/>
+          <a:ext cx="1197360" cy="1409400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5147,9 +5122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>679680</xdr:colOff>
+      <xdr:colOff>679320</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5163,7 +5138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105880" y="4713120"/>
-          <a:ext cx="1205640" cy="2332800"/>
+          <a:ext cx="1205280" cy="2332440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5184,7 +5159,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>698760</xdr:colOff>
+      <xdr:colOff>698400</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
@@ -5196,7 +5171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5261760" y="2987280"/>
-          <a:ext cx="1068840" cy="204480"/>
+          <a:ext cx="1068480" cy="204480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5262,9 +5237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>845640</xdr:colOff>
+      <xdr:colOff>845280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5278,7 +5253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2478240" y="95040"/>
-          <a:ext cx="1287720" cy="4267440"/>
+          <a:ext cx="1287360" cy="4267080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5301,7 +5276,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>543240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5310,8 +5285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2434680" y="2919240"/>
-          <a:ext cx="608040" cy="267480"/>
+          <a:off x="2434680" y="2918880"/>
+          <a:ext cx="607680" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5363,7 +5338,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
@@ -5375,7 +5350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2535120" y="239760"/>
-          <a:ext cx="486360" cy="267480"/>
+          <a:ext cx="486000" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5557,7 +5532,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>502200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5566,8 +5541,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2961720" y="3150000"/>
-          <a:ext cx="654120" cy="267480"/>
+          <a:off x="2961720" y="3149640"/>
+          <a:ext cx="653760" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5692,7 +5667,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>31680</xdr:colOff>
+      <xdr:colOff>31320</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
@@ -5704,7 +5679,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2506680" y="247680"/>
-          <a:ext cx="445320" cy="267480"/>
+          <a:ext cx="444960" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5756,7 +5731,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
@@ -5768,7 +5743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2532960" y="260640"/>
-          <a:ext cx="486360" cy="267480"/>
+          <a:ext cx="486000" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5820,7 +5795,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>26280</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
@@ -5832,7 +5807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2460600" y="416160"/>
-          <a:ext cx="486360" cy="267480"/>
+          <a:ext cx="486000" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5884,7 +5859,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
@@ -5896,7 +5871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2454120" y="604800"/>
-          <a:ext cx="486360" cy="267480"/>
+          <a:ext cx="486000" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7579,7 +7554,7 @@
         <v>190</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>192</v>
@@ -7602,7 +7577,7 @@
         <v>197</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>199</v>
@@ -7729,10 +7704,10 @@
         <v>134</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="I10" s="26" t="s">
         <v>137</v>
@@ -7758,10 +7733,10 @@
         <v>126</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>129</v>
@@ -8029,48 +8004,48 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G22" s="26" t="s">
         <v>1076</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="K22" s="26" t="s">
         <v>1077</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>1081</v>
-      </c>
       <c r="M22" s="26" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B23" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="K23" s="26" t="s">
         <v>1083</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>1087</v>
-      </c>
       <c r="M23" s="26" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,19 +8053,19 @@
         <v>484</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>153</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8098,19 +8073,19 @@
         <v>485</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8118,19 +8093,19 @@
         <v>486</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>112</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="M26" s="26" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8138,19 +8113,19 @@
         <v>487</v>
       </c>
       <c r="B27" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M27" s="26" t="s">
         <v>1102</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>1160</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8173,7 +8148,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8196,7 +8171,7 @@
         <v>79</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8219,7 +8194,7 @@
         <v>244</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8233,7 +8208,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>70</v>
@@ -8259,7 +8234,7 @@
         <v>61</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>63</v>
@@ -8286,7 +8261,7 @@
       </c>
       <c r="D33" s="125"/>
       <c r="E33" s="125" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F33" s="125" t="s">
         <v>273</v>
@@ -8317,7 +8292,7 @@
       </c>
       <c r="D34" s="125"/>
       <c r="E34" s="125" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F34" s="125" t="s">
         <v>267</v>
@@ -8400,7 +8375,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="125" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B37" s="125" t="s">
         <v>282</v>
@@ -8431,7 +8406,7 @@
     </row>
     <row r="38" s="39" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="125" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B38" s="125" t="s">
         <v>277</v>
@@ -8739,16 +8714,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="113" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="E1" s="113" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="F1" s="113" t="s">
         <v>1</v>
@@ -8789,16 +8764,16 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="Q2" s="26"/>
     </row>
@@ -8807,13 +8782,13 @@
         <v>216</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>217</v>
@@ -8831,16 +8806,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="Q4" s="26"/>
     </row>
@@ -8849,10 +8824,10 @@
         <v>209</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>210</v>
@@ -8882,13 +8857,13 @@
         <v>80</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>44</v>
@@ -8918,10 +8893,10 @@
         <v>94</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="F7" s="26" t="s">
         <v>141</v>
@@ -8951,13 +8926,13 @@
         <v>148</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="F8" s="26" t="s">
         <v>149</v>
@@ -8987,13 +8962,13 @@
         <v>221</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>222</v>
@@ -9017,10 +8992,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>308</v>
@@ -9053,16 +9028,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>50</v>
@@ -9089,10 +9064,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>312</v>
@@ -9125,10 +9100,10 @@
         <v>124</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>125</v>
@@ -9137,10 +9112,10 @@
         <v>126</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="M13" s="26" t="s">
         <v>129</v>
@@ -9160,10 +9135,10 @@
         <v>132</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="F14" s="26" t="s">
         <v>133</v>
@@ -9172,10 +9147,10 @@
         <v>134</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="M14" s="26" t="s">
         <v>137</v>
@@ -9198,10 +9173,10 @@
         <v>239</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>37</v>
@@ -9261,25 +9236,25 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>258</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="Q17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>452</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="Q18" s="26"/>
     </row>
@@ -9288,7 +9263,7 @@
         <v>116</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>369</v>
@@ -9321,34 +9296,34 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K20" s="26" t="s">
         <v>1076</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="O20" s="26" t="s">
         <v>1077</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="Q20" s="26" t="s">
         <v>1078</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>1079</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>1081</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9356,10 +9331,10 @@
         <v>227</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="F21" s="26" t="s">
         <v>228</v>
@@ -9383,34 +9358,34 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>484</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F22" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O22" s="26" t="s">
         <v>1083</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="Q22" s="26" t="s">
         <v>1084</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9421,7 +9396,7 @@
         <v>485</v>
       </c>
       <c r="C23" s="26" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="F23" s="26" t="s">
         <v>234</v>
@@ -9451,25 +9426,25 @@
         <v>486</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="G24" s="26" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="K24" s="26" t="s">
         <v>153</v>
       </c>
       <c r="O24" s="26" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="Q24" s="26" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9480,25 +9455,25 @@
         <v>488</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>145</v>
       </c>
       <c r="O25" s="26" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="Q25" s="26" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9509,13 +9484,13 @@
         <v>490</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>30</v>
@@ -9545,25 +9520,25 @@
         <v>493</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="K27" s="26" t="s">
         <v>112</v>
       </c>
       <c r="O27" s="26" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="Q27" s="26" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9574,10 +9549,10 @@
         <v>498</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>171</v>
@@ -9609,13 +9584,13 @@
         <v>504</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>164</v>
@@ -9645,7 +9620,7 @@
         <v>510</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="F30" s="26" t="s">
         <v>195</v>
@@ -9657,7 +9632,7 @@
         <v>197</v>
       </c>
       <c r="I30" s="26" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="K30" s="26" t="s">
         <v>199</v>
@@ -9678,13 +9653,13 @@
         <v>515</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="F31" s="26" t="s">
         <v>157</v>
@@ -9714,7 +9689,7 @@
         <v>521</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="F32" s="26" t="s">
         <v>188</v>
@@ -9726,7 +9701,7 @@
         <v>190</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="K32" s="26" t="s">
         <v>192</v>
@@ -9744,13 +9719,13 @@
         <v>526</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>67</v>
@@ -9759,7 +9734,7 @@
         <v>68</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="K33" s="26" t="s">
         <v>70</v>
@@ -9780,13 +9755,13 @@
         <v>80</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="F34" s="26" t="s">
         <v>81</v>
@@ -9815,13 +9790,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="F35" s="26" t="s">
         <v>60</v>
@@ -9830,7 +9805,7 @@
         <v>61</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="K35" s="26" t="s">
         <v>63</v>
@@ -9851,13 +9826,13 @@
         <v>101</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="F36" s="26" t="s">
         <v>102</v>
@@ -9886,10 +9861,10 @@
         <v>176</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F37" s="26" t="s">
         <v>177</v>
@@ -9921,13 +9896,13 @@
         <v>87</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="F38" s="26" t="s">
         <v>88</v>
@@ -9956,10 +9931,10 @@
         <v>446</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="F39" s="26" t="s">
         <v>265</v>
@@ -9968,7 +9943,7 @@
         <v>266</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>267</v>
@@ -9988,13 +9963,13 @@
         <v>94</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="F40" s="26" t="s">
         <v>95</v>
@@ -10023,10 +9998,10 @@
         <v>452</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="F41" s="26" t="s">
         <v>271</v>
@@ -10035,7 +10010,7 @@
         <v>272</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="J41" s="26" t="s">
         <v>273</v>
@@ -10055,13 +10030,13 @@
         <v>245</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="F42" s="26" t="s">
         <v>246</v>
@@ -10088,10 +10063,10 @@
         <v>258</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>259</v>
@@ -10120,13 +10095,13 @@
         <v>239</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>240</v>
@@ -10144,7 +10119,7 @@
         <v>244</v>
       </c>
       <c r="Q44" s="26" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,10 +10127,10 @@
         <v>251</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>252</v>
@@ -10184,10 +10159,10 @@
         <v>202</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="F46" s="26" t="s">
         <v>203</v>
@@ -10211,13 +10186,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="F47" s="26" t="s">
         <v>282</v>
@@ -10246,13 +10221,13 @@
         <v>74</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="F48" s="26" t="s">
         <v>75</v>
@@ -10270,18 +10245,18 @@
         <v>79</v>
       </c>
       <c r="Q48" s="26" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="F49" s="26" t="s">
         <v>277</v>
@@ -10310,13 +10285,13 @@
         <v>6</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="F50" s="26" t="s">
         <v>55</v>
@@ -10334,7 +10309,7 @@
         <v>59</v>
       </c>
       <c r="Q50" s="26" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10342,28 +10317,28 @@
         <v>487</v>
       </c>
       <c r="B51" s="26" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>1099</v>
+      </c>
+      <c r="K51" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O51" s="26" t="s">
         <v>1101</v>
       </c>
-      <c r="C51" s="26" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F51" s="26" t="s">
+      <c r="Q51" s="26" t="s">
         <v>1102</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>1103</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="O51" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="Q51" s="26" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10417,7 +10392,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="101" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B54" s="101"/>
       <c r="C54" s="101"/>
@@ -10427,7 +10402,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="101" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="Q55" s="26"/>
     </row>
@@ -20472,7 +20447,7 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20818,7 +20793,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="142" t="s">
         <v>1028</v>
       </c>
       <c r="B23" s="132" t="n">
@@ -20831,13 +20806,13 @@
       <c r="E23" s="135" t="n">
         <v>35</v>
       </c>
-      <c r="F23" s="148" t="s">
-        <v>1030</v>
+      <c r="F23" s="147" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="139" t="s">
-        <v>1031</v>
+      <c r="A24" s="148" t="s">
+        <v>993</v>
       </c>
       <c r="B24" s="132" t="n">
         <v>31</v>
@@ -20847,12 +20822,12 @@
       <c r="E24" s="135" t="n">
         <v>34</v>
       </c>
-      <c r="F24" s="148" t="s">
-        <v>1032</v>
+      <c r="F24" s="147" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="140" t="s">
+      <c r="A25" s="150" t="s">
         <v>993</v>
       </c>
       <c r="B25" s="132" t="n">
@@ -20863,8 +20838,8 @@
       <c r="E25" s="135" t="n">
         <v>33</v>
       </c>
-      <c r="F25" s="141" t="s">
-        <v>1033</v>
+      <c r="F25" s="147" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="26" s="89" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21018,7 +20993,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="98" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="98" t="s">
         <v>1</v>
@@ -21062,7 +21037,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>14</v>
@@ -21092,7 +21067,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>22</v>
@@ -21203,7 +21178,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>50</v>
@@ -21230,7 +21205,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>55</v>
@@ -21248,7 +21223,7 @@
         <v>59</v>
       </c>
       <c r="N8" s="26" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21256,7 +21231,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>60</v>
@@ -21265,7 +21240,7 @@
         <v>61</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="H9" s="26" t="s">
         <v>63</v>
@@ -21295,7 +21270,7 @@
         <v>68</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="H10" s="26" t="s">
         <v>70</v>
@@ -21316,7 +21291,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>75</v>
@@ -21334,7 +21309,7 @@
         <v>79</v>
       </c>
       <c r="N11" s="26" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21342,7 +21317,7 @@
         <v>80</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>81</v>
@@ -21371,7 +21346,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>88</v>
@@ -21400,7 +21375,7 @@
         <v>94</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>95</v>
@@ -21429,7 +21404,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>102</v>
@@ -21488,7 +21463,7 @@
         <v>116</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>117</v>
@@ -21518,7 +21493,7 @@
         <v>124</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>125</v>
@@ -21527,10 +21502,10 @@
         <v>126</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>129</v>
@@ -21550,7 +21525,7 @@
         <v>132</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>133</v>
@@ -21559,10 +21534,10 @@
         <v>134</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>137</v>
@@ -21612,7 +21587,7 @@
         <v>148</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>149</v>
@@ -21725,7 +21700,7 @@
         <v>176</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>177</v>
@@ -21808,7 +21783,7 @@
         <v>190</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="H27" s="26" t="s">
         <v>192</v>
@@ -21835,7 +21810,7 @@
         <v>197</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>199</v>
@@ -21853,7 +21828,7 @@
         <v>202</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>203</v>
@@ -21880,7 +21855,7 @@
         <v>209</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>210</v>
@@ -21907,7 +21882,7 @@
         <v>216</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>217</v>
@@ -21928,7 +21903,7 @@
         <v>221</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>222</v>
@@ -21952,7 +21927,7 @@
         <v>227</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>228</v>
@@ -22006,7 +21981,7 @@
         <v>239</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>240</v>
@@ -22024,7 +21999,7 @@
         <v>244</v>
       </c>
       <c r="N35" s="26" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22032,7 +22007,7 @@
         <v>245</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>246</v>
@@ -22066,7 +22041,7 @@
         <v>251</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>252</v>
@@ -22095,7 +22070,7 @@
         <v>258</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>259</v>
@@ -22124,7 +22099,7 @@
         <v>446</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>265</v>
@@ -22133,7 +22108,7 @@
         <v>266</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>267</v>
@@ -22153,7 +22128,7 @@
         <v>452</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>271</v>
@@ -22162,7 +22137,7 @@
         <v>272</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>273</v>
@@ -22179,10 +22154,10 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>282</v>
@@ -22208,10 +22183,10 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>277</v>
@@ -22237,61 +22212,61 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="101" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="B44" s="101"/>
       <c r="N44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H45" s="26" t="s">
         <v>1076</v>
       </c>
-      <c r="B45" s="26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="L45" s="26" t="s">
         <v>1077</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="N45" s="26" t="s">
         <v>1078</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="L45" s="26" t="s">
-        <v>1081</v>
-      </c>
-      <c r="N45" s="26" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>484</v>
       </c>
       <c r="C46" s="26" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L46" s="26" t="s">
         <v>1083</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="N46" s="26" t="s">
         <v>1084</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>1086</v>
-      </c>
-      <c r="L46" s="26" t="s">
-        <v>1087</v>
-      </c>
-      <c r="N46" s="26" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22302,19 +22277,19 @@
         <v>486</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="H47" s="26" t="s">
         <v>153</v>
       </c>
       <c r="L47" s="26" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22325,19 +22300,19 @@
         <v>488</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="H48" s="26" t="s">
         <v>145</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="N48" s="26" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22348,19 +22323,19 @@
         <v>493</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="H49" s="26" t="s">
         <v>112</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="N49" s="26" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22368,33 +22343,33 @@
         <v>487</v>
       </c>
       <c r="B50" s="26" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H50" s="26" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L50" s="26" t="s">
         <v>1101</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="N50" s="26" t="s">
         <v>1102</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>1104</v>
-      </c>
-      <c r="L50" s="26" t="s">
-        <v>1105</v>
-      </c>
-      <c r="N50" s="26" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="101" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="N51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>258</v>
@@ -22403,7 +22378,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>452</v>
@@ -22412,19 +22387,19 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="N54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="N55" s="26"/>
     </row>
@@ -23778,7 +23753,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>282</v>
@@ -23810,7 +23785,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>277</v>
@@ -23849,66 +23824,66 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C44" s="26" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D44" s="105" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F44" s="103" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G44" s="109" t="s">
         <v>1114</v>
       </c>
-      <c r="D44" s="105" t="s">
+      <c r="H44" s="106" t="s">
         <v>1115</v>
       </c>
-      <c r="E44" s="111" t="s">
+      <c r="I44" s="26" t="s">
         <v>1116</v>
       </c>
-      <c r="F44" s="103" t="s">
+      <c r="K44" s="26" t="s">
         <v>1117</v>
-      </c>
-      <c r="G44" s="109" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H44" s="106" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>1120</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C45" s="26" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D45" s="105" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E45" s="111" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G45" s="109" t="s">
         <v>1122</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="H45" s="106" t="s">
         <v>1123</v>
       </c>
-      <c r="E45" s="111" t="s">
+      <c r="I45" s="26" t="s">
         <v>1124</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="K45" s="26" t="s">
         <v>1125</v>
-      </c>
-      <c r="G45" s="109" t="s">
-        <v>1126</v>
-      </c>
-      <c r="H45" s="106" t="s">
-        <v>1127</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>1128</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23916,10 +23891,10 @@
         <v>484</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="D46" s="105" t="s">
         <v>689</v>
@@ -23928,19 +23903,19 @@
         <v>572</v>
       </c>
       <c r="F46" s="103" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G46" s="109" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H46" s="106" t="s">
+        <v>1129</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K46" s="26" t="s">
         <v>1131</v>
-      </c>
-      <c r="G46" s="109" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H46" s="106" t="s">
-        <v>1133</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>1134</v>
-      </c>
-      <c r="K46" s="26" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23948,31 +23923,31 @@
         <v>485</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="D47" s="105" t="s">
         <v>680</v>
       </c>
       <c r="E47" s="105" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F47" s="103" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G47" s="109" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H47" s="106" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I47" s="26" t="s">
         <v>1137</v>
       </c>
-      <c r="F47" s="103" t="s">
+      <c r="K47" s="26" t="s">
         <v>1138</v>
-      </c>
-      <c r="G47" s="109" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H47" s="106" t="s">
-        <v>1140</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23980,10 +23955,10 @@
         <v>486</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="D48" s="105" t="s">
         <v>647</v>
@@ -23995,16 +23970,16 @@
         <v>674</v>
       </c>
       <c r="G48" s="109" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="H48" s="106" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24012,31 +23987,31 @@
         <v>487</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="D49" s="105" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="E49" s="105" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F49" s="104" t="s">
         <v>665</v>
       </c>
       <c r="G49" s="109" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="H49" s="106" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
   </sheetData>
